--- a/registration/combined-test.xlsx
+++ b/registration/combined-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/workspace/workspace-yanagi/programming-practice/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE691F6-A0EE-CD4C-B6D9-2D389889AE89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DA069A-E262-7B47-B4FE-5DAC18C79E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="860" windowWidth="27900" windowHeight="15800" xr2:uid="{15DF32AE-A43E-2945-92FE-B15F32AE6875}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{15DF32AE-A43E-2945-92FE-B15F32AE6875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>ファイル名</t>
     <phoneticPr fontId="2"/>
@@ -162,13 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面から「確認」を押下</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント登録画面の「名前（姓）」に記入した内容が表示される</t>
     <rPh sb="0" eb="2">
       <t>ナマ</t>
@@ -370,6 +363,39 @@
   </si>
   <si>
     <t>d.i.blog.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柳　昌宏</t>
+    <rPh sb="0" eb="1">
+      <t>ヤナg</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別、住所（都道府県）の内容が表示されず初期値に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>、ジュウsy</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PC/macOS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に全ての項目を入力・選択した状態で「確認」を押下</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -403,14 +429,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9" tint="0.59999389629810485"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="游ゴシック (本文)"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,12 +473,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,17 +553,38 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5792A-F5C1-0549-A209-0B9F55201185}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -881,43 +920,44 @@
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
@@ -954,19 +994,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="20">
+        <v>45002</v>
+      </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="63">
@@ -974,19 +1022,27 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="23">
+        <v>45002</v>
+      </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="63">
@@ -997,16 +1053,24 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="22">
+        <v>45002</v>
+      </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="63">
@@ -1017,16 +1081,24 @@
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="22">
+        <v>45002</v>
+      </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="63">
@@ -1037,16 +1109,24 @@
         <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="22">
+        <v>45002</v>
+      </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="63">
@@ -1057,19 +1137,27 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="22">
+        <v>45002</v>
+      </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="42">
+    <row r="10" spans="1:10" ht="63">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1077,19 +1165,27 @@
         <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="22">
+        <v>45002</v>
+      </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="42">
+    <row r="11" spans="1:10" ht="63">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1097,19 +1193,27 @@
         <v>16</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="22">
+        <v>45002</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="42">
+    <row r="12" spans="1:10" ht="63">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1117,19 +1221,27 @@
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="22">
+        <v>45002</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="42">
+    <row r="13" spans="1:10" ht="63">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1137,213 +1249,287 @@
         <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="22">
+        <v>45002</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="15"/>
+      <c r="H13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="63">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="22">
+        <v>45002</v>
+      </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="63">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="22">
+        <v>45002</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="42">
-      <c r="A16" s="16">
+    <row r="16" spans="1:10" ht="63">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="22">
+        <v>45002</v>
+      </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="42">
-      <c r="A17" s="16">
+    <row r="17" spans="1:10" ht="63">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="22">
+        <v>45002</v>
+      </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="22">
+        <v>45002</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="84">
+      <c r="A19" s="14">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="63">
-      <c r="A19" s="16">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="14"/>
+      <c r="E19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="22">
+        <v>45002</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="37" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="22">
+        <v>45002</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="42">
+      <c r="A21" s="14">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="42">
-      <c r="A21" s="16">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="21">
+        <v>45002</v>
+      </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/registration/combined-test.xlsx
+++ b/registration/combined-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/workspace/workspace-yanagi/programming-practice/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DA069A-E262-7B47-B4FE-5DAC18C79E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FA5D6B-8784-0849-A532-07415F78A9E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{15DF32AE-A43E-2945-92FE-B15F32AE6875}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -403,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,7 +430,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック (本文)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -507,19 +513,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -529,9 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -541,9 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +579,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D5792A-F5C1-0549-A209-0B9F55201185}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -924,612 +933,612 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="78" customHeight="1">
-      <c r="A4" s="2">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="20">
-        <v>45002</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="4"/>
+      <c r="E4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="16">
+        <v>45002</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="63">
-      <c r="A5" s="2">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="23">
-        <v>45002</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="E5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="19">
+        <v>45002</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="63">
-      <c r="A6" s="2">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="63">
-      <c r="A7" s="2">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="8"/>
+      <c r="E7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="63">
-      <c r="A8" s="2">
+      <c r="A8" s="23">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="63">
-      <c r="A9" s="2">
+      <c r="A9" s="23">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="63">
-      <c r="A10" s="2">
+      <c r="A10" s="23">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="8"/>
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="63">
-      <c r="A11" s="2">
+      <c r="A11" s="23">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="8"/>
+      <c r="E11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="63">
-      <c r="A12" s="2">
+      <c r="A12" s="23">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="8"/>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="63">
-      <c r="A13" s="2">
+      <c r="A13" s="23">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="8"/>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="63">
-      <c r="A14" s="14">
+      <c r="A14" s="24">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="E14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="63">
-      <c r="A15" s="14">
+      <c r="A15" s="24">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="63">
-      <c r="A16" s="14">
+      <c r="A16" s="24">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="E16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="63">
-      <c r="A17" s="14">
+      <c r="A17" s="24">
         <v>14</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="8"/>
+      <c r="E17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="14">
+      <c r="A18" s="24">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="8"/>
+      <c r="E18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="84">
-      <c r="A19" s="14">
+      <c r="A19" s="24">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="E19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="24" t="s">
+      <c r="H19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="37" customHeight="1">
-      <c r="A20" s="14">
+      <c r="A20" s="24">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="22">
-        <v>45002</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="8"/>
+      <c r="E20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="18">
+        <v>45002</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="42">
-      <c r="A21" s="14">
+      <c r="A21" s="24">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="21">
-        <v>45002</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="12"/>
+      <c r="E21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="17">
+        <v>45002</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
